--- a/organisation/Sprint 8 - Zeitaufzeichnung.xlsx
+++ b/organisation/Sprint 8 - Zeitaufzeichnung.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25028"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jakob\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ffce2ed5387dd938/Dokumente/GitHub/cellarius/organisation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A4AAE84-F078-409D-818B-8912D892CB1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="55" documentId="13_ncr:1_{6D63F8B0-D922-4987-9B6A-D3198A6A91B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7D7CE67A-FCDB-4AFD-9BAC-043567680B64}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -586,8 +586,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -739,13 +739,13 @@
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="9"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="9"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="9"/>
     </row>
-    <row r="20" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>7</v>
       </c>
@@ -753,7 +753,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>3</v>
       </c>
@@ -761,26 +761,32 @@
         <f>D5+D9</f>
         <v>0.58958333333333335</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C21" s="10">
+        <f>D5+D7+D8+D6</f>
+        <v>0.74930555555555556</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22" s="6"/>
+      <c r="C22" s="10">
+        <f>D5+D9</f>
+        <v>0.58958333333333335</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="6"/>
+      <c r="C23" s="10">
         <f>D5+D10</f>
         <v>0.57847222222222228</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B23" s="6">
-        <f>D5+D7+D8+D6</f>
-        <v>0.74930555555555556</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>6</v>
       </c>
@@ -789,16 +795,16 @@
         <v>0.59236111111111112</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B25" s="8">
         <f>SUM(B21:B24)</f>
-        <v>2.509722222222222</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+        <v>1.1819444444444445</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:Y43">
